--- a/biology/Médecine/Private_Practice/Private_Practice.xlsx
+++ b/biology/Médecine/Private_Practice/Private_Practice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Private Practice ou Pratique privée au Québec (Private Practice) est une série télévisée américaine en 111 épisodes de 42 minutes créée par Shonda Rhimes et diffusée entre le 26 septembre 2007 et le 22 janvier 2013 sur le réseau ABC. Au Canada, la première saison a été diffusée sur le réseau CTV[1], puis sur /A\ à partir de la deuxième saison[2], puis en simultané sur Citytv dès la cinquième saison[3]. C'est le premier spin-off de la série américaine Grey's Anatomy.
-En France, la série a été acquise par TF1 en 2007[4], mais elle a finalement été revendue à France Télévisions[5]. Elle est diffusée du 20 juin 2011 au 31 août 2016 sur France 2, à raison de quatre épisodes par semaine puis rediffusée depuis le 28 février 2013 sur France 4[6] et sur France Ô du 14 août 2020 au 21 août 2020. En Suisse, la série est diffusée depuis le 14 mai 2008 sur TSR1. En Belgique, la série est diffusée depuis le 6 juillet 2008 sur RTL-TVI, à raison de deux épisodes par semaine et rediffusée sur AB3. Au Québec, seulement les deux premières saisons sont diffusées depuis le 8 juin 2009 sur V (anciennement TQS), puis rediffusées depuis le 7 janvier 2013 sur Moi &amp; Cie.
+Private Practice ou Pratique privée au Québec (Private Practice) est une série télévisée américaine en 111 épisodes de 42 minutes créée par Shonda Rhimes et diffusée entre le 26 septembre 2007 et le 22 janvier 2013 sur le réseau ABC. Au Canada, la première saison a été diffusée sur le réseau CTV, puis sur /A\ à partir de la deuxième saison, puis en simultané sur Citytv dès la cinquième saison. C'est le premier spin-off de la série américaine Grey's Anatomy.
+En France, la série a été acquise par TF1 en 2007, mais elle a finalement été revendue à France Télévisions. Elle est diffusée du 20 juin 2011 au 31 août 2016 sur France 2, à raison de quatre épisodes par semaine puis rediffusée depuis le 28 février 2013 sur France 4 et sur France Ô du 14 août 2020 au 21 août 2020. En Suisse, la série est diffusée depuis le 14 mai 2008 sur TSR1. En Belgique, la série est diffusée depuis le 6 juillet 2008 sur RTL-TVI, à raison de deux épisodes par semaine et rediffusée sur AB3. Au Québec, seulement les deux premières saisons sont diffusées depuis le 8 juin 2009 sur V (anciennement TQS), puis rediffusées depuis le 7 janvier 2013 sur Moi &amp; Cie.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir atteint le point maximum qu'elle pouvait supporter, Addison Montgomery part pour Santa Monica en Californie. Son plan : trouver conseil auprès de deux de ses anciens amis de l'école de médecine, Naomi et Sam. Selon Addison, c'est le couple idéal qui a tout ce qu'on peut désirer : une fille magnifique, un beau mariage et des carrières à succès. 
 Addison finit donc par décider de quitter le Seattle Grace pour rejoindre le Groupe Oceanside Wellness.
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Acteurs principaux ayant quitté la série
-Personnages récurrents
-Geffri Maya (VF : Alexandrine Serre) : Maya Bennett (saisons 1, 2, 3)
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Geffri Maya (VF : Alexandrine Serre) : Maya Bennett (saisons 1, 2, 3)
 Hailey Sole (VF : Camille Timmerman) : Betsey Parker (saisons 2, 3, 4)
 David Sutcliffe (VF : Patrice Baudrier) : Kevin Nelson (saisons 1, 2)
 Jayne Brook (VF : Stéphanie Lafforgue) : Dr Meg Porter (saison 2)
@@ -594,9 +611,43 @@
 Matt Long (VF : Nessym Guétat) : Dr James Peterson (saison 6)
 Carter MacIntyre (VF : Jérémy Prévost) : Nick Calhoun (saison 6)
 Charlie Hofheimer (VF : Stéphane Pouplard) : Ron Nelson (saison 6)
-Chryssie Whitehead (VF : Anne Massoteau) : Dana Nelson (saison 6)
-Invités
-Stacy Edwards : Maria (saison 1)
+Chryssie Whitehead (VF : Anne Massoteau) : Dana Nelson (saison 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Private_Practice</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Private_Practice</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stacy Edwards : Maria (saison 1)
 Rebecca Mader : Leslie (saison 1)
 Fran Kranz (VF : Nessym Guétat)  : Brian (saison 1, épisode 2)
 Leslie Hope (VF : Déborah Perret) : Linda (saison 1, épisode 3)
@@ -624,38 +675,12 @@
 Debby Ryan : Hailey (Saison 5)
 Courteney Cox : Patiente (Saison 5)
 Version française
-Société de doublage : Dubbing Brothers[8],[9]
+Société de doublage : Dubbing Brothers,
 Direction artistique : Valérie Siclay et Barbara Tissier
-Adaptation des dialogues : Philippe Lebeau[8], Sophie Arthuys et Carole Cadinot
-Sources VF : Doublage Séries Database[8] et RS Doublage[9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Private_Practice</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Private_Practice</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+Adaptation des dialogues : Philippe Lebeau, Sophie Arthuys et Carole Cadinot
+Sources VF : Doublage Séries Database et RS Doublage</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -678,23 +703,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Commentaires</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Private Practice est une série dérivée de Grey's Anatomy (Dr Grey, leçons d'anatomie au Québec). Une partie des acteurs récurrents de Private Practice a fait une apparition dans Grey's Anatomy en tenant son rôle Private Practice notamment lors de recherches communes sur un même patient entre les deux hôpitaux[16].
-ABC avait commandé treize épisodes pour la première saison, qui commençaient par « In which… ». Seulement, à la suite de la grève des scénaristes, ABC a décidé d'arrêter la saison dès le 9e épisode. Les épisodes de la saison 2 ne reprennent plus ces titres.
-Le tournage de la saison 2 a commencé plus tôt que les autres séries, Shonda Rhimes, créatrice et productrice exécutive de la série, voulant se focaliser assez vite sur la série-mère, Grey's Anatomy.
-Alexis Denisof, Emma Caulfield, Amber Benson, D.B. Woodside, Nicholas Brendon, et Sarah Hagan sont tous d'ancien acteurs de la série fantastique Buffy contre les vampires, Clea DuVall a quant à elle fait une apparition dans un épisode de la saison 1 de cette même série. Amy Acker jouait dans le spin-off de Buffy contre les vampires, Angel. Amber Benson a également fait une apparition dans la série dérivée Grey's Anatomy.
-En janvier 2011, ABC annonce le renouvellement de Private Practice pour une 5e saison (2011-2012)[17].
-En août 2011, le magazine TV Guide dévoile le salaire de Kate Walsh : l'actrice touche 275 000 $ par épisode[18].
-Le 11 mai 2012, ABC annonce le renouvellement de Private Practice pour une 6e saison de 13 épisodes[19].
-La maison de Violette, d'où l'on aperçoit les lettres Hollywood se situe au 6208 Mulholland Hwy à Hollywood.
-La clinique Ocean Side, se situe à l'intersection de la 4th et Wilshire à Santa Monica. C'est actuellement une banque, Elle possède deux étages, les troisième et quatrième sont ajoutés à l'image mais n'existent pas dans la réalité.
-La créatrice de la série, Shonda Rhimes, annonce le 20 octobre 2012 que la série s'arrêtera définitivement après la saison 6[20].</t>
-        </is>
-      </c>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -717,13 +731,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Audiences en France</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Private Practice est une série dérivée de Grey's Anatomy (Dr Grey, leçons d'anatomie au Québec). Une partie des acteurs récurrents de Private Practice a fait une apparition dans Grey's Anatomy en tenant son rôle Private Practice notamment lors de recherches communes sur un même patient entre les deux hôpitaux.
+ABC avait commandé treize épisodes pour la première saison, qui commençaient par « In which… ». Seulement, à la suite de la grève des scénaristes, ABC a décidé d'arrêter la saison dès le 9e épisode. Les épisodes de la saison 2 ne reprennent plus ces titres.
+Le tournage de la saison 2 a commencé plus tôt que les autres séries, Shonda Rhimes, créatrice et productrice exécutive de la série, voulant se focaliser assez vite sur la série-mère, Grey's Anatomy.
+Alexis Denisof, Emma Caulfield, Amber Benson, D.B. Woodside, Nicholas Brendon, et Sarah Hagan sont tous d'ancien acteurs de la série fantastique Buffy contre les vampires, Clea DuVall a quant à elle fait une apparition dans un épisode de la saison 1 de cette même série. Amy Acker jouait dans le spin-off de Buffy contre les vampires, Angel. Amber Benson a également fait une apparition dans la série dérivée Grey's Anatomy.
+En janvier 2011, ABC annonce le renouvellement de Private Practice pour une 5e saison (2011-2012).
+En août 2011, le magazine TV Guide dévoile le salaire de Kate Walsh : l'actrice touche 275 000 $ par épisode.
+Le 11 mai 2012, ABC annonce le renouvellement de Private Practice pour une 6e saison de 13 épisodes.
+La maison de Violette, d'où l'on aperçoit les lettres Hollywood se situe au 6208 Mulholland Hwy à Hollywood.
+La clinique Ocean Side, se situe à l'intersection de la 4th et Wilshire à Santa Monica. C'est actuellement une banque, Elle possède deux étages, les troisième et quatrième sont ajoutés à l'image mais n'existent pas dans la réalité.
+La créatrice de la série, Shonda Rhimes, annonce le 20 octobre 2012 que la série s'arrêtera définitivement après la saison 6.</t>
         </is>
       </c>
     </row>
@@ -748,12 +772,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Audiences en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Private_Practice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Private_Practice</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Coffrets DVD</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des coffrets DVD des saisons 1 à 6 sont sortis en France[23]. Le DVD de la quatrième saison est sorti le 13 septembre 2011 aux États-Unis.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des coffrets DVD des saisons 1 à 6 sont sortis en France. Le DVD de la quatrième saison est sorti le 13 septembre 2011 aux États-Unis.
 </t>
         </is>
       </c>
